--- a/data/pca/factorExposure/factorExposure_2015-09-14.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-09-14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.02728464481233327</v>
+        <v>0.02202598168290721</v>
       </c>
       <c r="C2">
-        <v>-0.031259506494925</v>
+        <v>-0.04284151593272464</v>
       </c>
       <c r="D2">
-        <v>-0.1140048671028491</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.1287659977206756</v>
+      </c>
+      <c r="E2">
+        <v>0.03859327925140855</v>
+      </c>
+      <c r="F2">
+        <v>0.03281214230851959</v>
+      </c>
+      <c r="G2">
+        <v>-0.08195284826732117</v>
+      </c>
+      <c r="H2">
+        <v>-0.07141264912570314</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.004994023014391134</v>
+        <v>-0.009629415501681369</v>
       </c>
       <c r="C3">
-        <v>-0.05491359953982942</v>
+        <v>-0.03983153633623096</v>
       </c>
       <c r="D3">
-        <v>-0.05209111427734244</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.04244005318110146</v>
+      </c>
+      <c r="E3">
+        <v>0.05166443246182491</v>
+      </c>
+      <c r="F3">
+        <v>0.05555397825753645</v>
+      </c>
+      <c r="G3">
+        <v>-0.1129206771727923</v>
+      </c>
+      <c r="H3">
+        <v>-0.04389685924532474</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.05103877013589535</v>
+        <v>0.04295745606614322</v>
       </c>
       <c r="C4">
-        <v>-0.06807430837155228</v>
+        <v>-0.08437337668110249</v>
       </c>
       <c r="D4">
-        <v>-0.1253391580966166</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.1450656783199351</v>
+      </c>
+      <c r="E4">
+        <v>0.05366720286811674</v>
+      </c>
+      <c r="F4">
+        <v>0.06107612655408946</v>
+      </c>
+      <c r="G4">
+        <v>0.04809752958137774</v>
+      </c>
+      <c r="H4">
+        <v>-0.009505392850720966</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.0335048760347449</v>
+        <v>0.03241957866672013</v>
       </c>
       <c r="C6">
-        <v>-0.02501745453289298</v>
+        <v>-0.03393590976790477</v>
       </c>
       <c r="D6">
-        <v>-0.1481622234941093</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.1387919827489524</v>
+      </c>
+      <c r="E6">
+        <v>0.008648224323339304</v>
+      </c>
+      <c r="F6">
+        <v>0.0577397591930217</v>
+      </c>
+      <c r="G6">
+        <v>-0.004970404671413639</v>
+      </c>
+      <c r="H6">
+        <v>-0.06033768890808681</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.01807953833082409</v>
+        <v>0.01364653298639893</v>
       </c>
       <c r="C7">
-        <v>-0.03251906117849342</v>
+        <v>-0.03924061101928439</v>
       </c>
       <c r="D7">
-        <v>-0.1109105695667988</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.0990200017574089</v>
+      </c>
+      <c r="E7">
+        <v>-0.009711107119470869</v>
+      </c>
+      <c r="F7">
+        <v>0.02476320358349624</v>
+      </c>
+      <c r="G7">
+        <v>-0.02000159701853341</v>
+      </c>
+      <c r="H7">
+        <v>-0.06098783750628168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.01151723020869971</v>
+        <v>0.005569594358080284</v>
       </c>
       <c r="C8">
-        <v>-0.03481450852470076</v>
+        <v>-0.04010025624382622</v>
       </c>
       <c r="D8">
-        <v>-0.06418427241614379</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.07734876791037493</v>
+      </c>
+      <c r="E8">
+        <v>0.02069615210197482</v>
+      </c>
+      <c r="F8">
+        <v>0.07200923934341424</v>
+      </c>
+      <c r="G8">
+        <v>-0.05457060921703381</v>
+      </c>
+      <c r="H8">
+        <v>-0.04084388459116044</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.03994934541621777</v>
+        <v>0.03220367911167985</v>
       </c>
       <c r="C9">
-        <v>-0.06048264769396863</v>
+        <v>-0.07314987788393439</v>
       </c>
       <c r="D9">
-        <v>-0.1171653306085325</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.1242290986275738</v>
+      </c>
+      <c r="E9">
+        <v>0.03591020443273862</v>
+      </c>
+      <c r="F9">
+        <v>0.03793659452045659</v>
+      </c>
+      <c r="G9">
+        <v>0.03259685340524106</v>
+      </c>
+      <c r="H9">
+        <v>-0.002824428727223728</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.1294773163582325</v>
+        <v>0.1793835472974</v>
       </c>
       <c r="C10">
-        <v>0.1877511613151237</v>
+        <v>0.1696532576788426</v>
       </c>
       <c r="D10">
-        <v>0.0008224466210296157</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.007722121085843533</v>
+      </c>
+      <c r="E10">
+        <v>0.03356393577108631</v>
+      </c>
+      <c r="F10">
+        <v>0.04197075006049779</v>
+      </c>
+      <c r="G10">
+        <v>0.008770611403056119</v>
+      </c>
+      <c r="H10">
+        <v>0.04871317198914813</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.03351260097454668</v>
+        <v>0.02644428168640937</v>
       </c>
       <c r="C11">
-        <v>-0.04271909666755124</v>
+        <v>-0.05150334136948773</v>
       </c>
       <c r="D11">
-        <v>-0.06123789197519938</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.05435827010166744</v>
+      </c>
+      <c r="E11">
+        <v>-0.01657547047774782</v>
+      </c>
+      <c r="F11">
+        <v>-0.005645179108064919</v>
+      </c>
+      <c r="G11">
+        <v>-0.01117042102445434</v>
+      </c>
+      <c r="H11">
+        <v>-0.02814954286554816</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.03882015677891484</v>
+        <v>0.02989308171357666</v>
       </c>
       <c r="C12">
-        <v>-0.04525629319674256</v>
+        <v>-0.05275890630764753</v>
       </c>
       <c r="D12">
-        <v>-0.06691188228848807</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.05505827569026505</v>
+      </c>
+      <c r="E12">
+        <v>-0.00758553288128224</v>
+      </c>
+      <c r="F12">
+        <v>-0.01128591005163144</v>
+      </c>
+      <c r="G12">
+        <v>-0.01261335273224243</v>
+      </c>
+      <c r="H12">
+        <v>-0.03142239935337546</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01227381401793611</v>
+        <v>0.01339017470217215</v>
       </c>
       <c r="C13">
-        <v>-0.03757890119196407</v>
+        <v>-0.04614571652471357</v>
       </c>
       <c r="D13">
-        <v>-0.1453535021347613</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.1588171900348691</v>
+      </c>
+      <c r="E13">
+        <v>0.003956154541875676</v>
+      </c>
+      <c r="F13">
+        <v>0.07231664468878556</v>
+      </c>
+      <c r="G13">
+        <v>-0.04091856512326775</v>
+      </c>
+      <c r="H13">
+        <v>-0.03608624996641682</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.004168119726281933</v>
+        <v>0.005010854737513057</v>
       </c>
       <c r="C14">
-        <v>-0.02530473426013577</v>
+        <v>-0.02887915308922407</v>
       </c>
       <c r="D14">
-        <v>-0.1043158807522738</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.1057440479321598</v>
+      </c>
+      <c r="E14">
+        <v>0.01373328503101451</v>
+      </c>
+      <c r="F14">
+        <v>0.02730884048234646</v>
+      </c>
+      <c r="G14">
+        <v>-0.02503159787384685</v>
+      </c>
+      <c r="H14">
+        <v>-0.08741231144422952</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.002661981775854248</v>
+        <v>0.001534964887338129</v>
       </c>
       <c r="C15">
-        <v>-0.006186079365786198</v>
+        <v>-0.01459637169272057</v>
       </c>
       <c r="D15">
-        <v>-0.01190374717335589</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.04051699614231802</v>
+      </c>
+      <c r="E15">
+        <v>0.007446876088469757</v>
+      </c>
+      <c r="F15">
+        <v>0.008149178350443062</v>
+      </c>
+      <c r="G15">
+        <v>-0.00883813954617341</v>
+      </c>
+      <c r="H15">
+        <v>-0.0207990995339868</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.0300062819191637</v>
+        <v>0.02427563137607256</v>
       </c>
       <c r="C16">
-        <v>-0.04463681647575932</v>
+        <v>-0.05010156964674189</v>
       </c>
       <c r="D16">
-        <v>-0.07077865974237671</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.06027031518878079</v>
+      </c>
+      <c r="E16">
+        <v>-0.001544457749068117</v>
+      </c>
+      <c r="F16">
+        <v>0.001928237035976688</v>
+      </c>
+      <c r="G16">
+        <v>-0.008999263714676676</v>
+      </c>
+      <c r="H16">
+        <v>-0.04341947309149748</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.01092162450837191</v>
+        <v>0.006183300653522546</v>
       </c>
       <c r="C19">
-        <v>-0.03120417190925265</v>
+        <v>-0.0274167430349712</v>
       </c>
       <c r="D19">
-        <v>-0.1496593700050428</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.1136283762168151</v>
+      </c>
+      <c r="E19">
+        <v>0.04520497313437515</v>
+      </c>
+      <c r="F19">
+        <v>0.01367864383543285</v>
+      </c>
+      <c r="G19">
+        <v>-0.02395144118601042</v>
+      </c>
+      <c r="H19">
+        <v>-0.04790300211053661</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.01438753539420258</v>
+        <v>0.01339738945705706</v>
       </c>
       <c r="C20">
-        <v>-0.03608738975748769</v>
+        <v>-0.04089415913257098</v>
       </c>
       <c r="D20">
-        <v>-0.09523026406704026</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.1061845252871593</v>
+      </c>
+      <c r="E20">
+        <v>0.03395298274115396</v>
+      </c>
+      <c r="F20">
+        <v>0.02578080256407564</v>
+      </c>
+      <c r="G20">
+        <v>-0.00609364504451993</v>
+      </c>
+      <c r="H20">
+        <v>-0.05450825890121956</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.01148291682308097</v>
+        <v>0.006347127377645986</v>
       </c>
       <c r="C21">
-        <v>-0.03912697227464149</v>
+        <v>-0.04663635749754544</v>
       </c>
       <c r="D21">
-        <v>-0.1567948097139356</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.1549321795110054</v>
+      </c>
+      <c r="E21">
+        <v>0.06277130887640016</v>
+      </c>
+      <c r="F21">
+        <v>0.06161719891431811</v>
+      </c>
+      <c r="G21">
+        <v>-0.009234283610164661</v>
+      </c>
+      <c r="H21">
+        <v>-0.07971993770788895</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.00267813035428914</v>
+        <v>0.007563620646379996</v>
       </c>
       <c r="C22">
-        <v>-0.05036128819243658</v>
+        <v>-0.05383822697769064</v>
       </c>
       <c r="D22">
-        <v>-0.1325197196579818</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.1908420283774833</v>
+      </c>
+      <c r="E22">
+        <v>0.0009056968606855324</v>
+      </c>
+      <c r="F22">
+        <v>0.1268440127735646</v>
+      </c>
+      <c r="G22">
+        <v>-0.126117677988237</v>
+      </c>
+      <c r="H22">
+        <v>0.06514331398897856</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.002855489820443953</v>
+        <v>0.007635494181522511</v>
       </c>
       <c r="C23">
-        <v>-0.0506756489913477</v>
+        <v>-0.05440143325847532</v>
       </c>
       <c r="D23">
-        <v>-0.131929912627247</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.1899611654221942</v>
+      </c>
+      <c r="E23">
+        <v>0.001118932258822717</v>
+      </c>
+      <c r="F23">
+        <v>0.1268634624540335</v>
+      </c>
+      <c r="G23">
+        <v>-0.1254516980742987</v>
+      </c>
+      <c r="H23">
+        <v>0.06522507485345344</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.03715814322026564</v>
+        <v>0.02715572868806649</v>
       </c>
       <c r="C24">
-        <v>-0.05750147951687943</v>
+        <v>-0.06251474084504577</v>
       </c>
       <c r="D24">
-        <v>-0.07076900055345242</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.06026385332803602</v>
+      </c>
+      <c r="E24">
+        <v>-0.00364114038376278</v>
+      </c>
+      <c r="F24">
+        <v>-0.0002397296833481576</v>
+      </c>
+      <c r="G24">
+        <v>-0.002742064026786279</v>
+      </c>
+      <c r="H24">
+        <v>-0.05513381340643255</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.04173196389694619</v>
+        <v>0.03214939805654723</v>
       </c>
       <c r="C25">
-        <v>-0.05134767267522024</v>
+        <v>-0.05975080886521177</v>
       </c>
       <c r="D25">
-        <v>-0.06878516712430513</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.06026083703223129</v>
+      </c>
+      <c r="E25">
+        <v>0.001951721854870864</v>
+      </c>
+      <c r="F25">
+        <v>0.002547692967656682</v>
+      </c>
+      <c r="G25">
+        <v>-0.01111363786153218</v>
+      </c>
+      <c r="H25">
+        <v>-0.02174875133853925</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.01402932866742614</v>
+        <v>0.01283473870685331</v>
       </c>
       <c r="C26">
-        <v>-0.01630696363349324</v>
+        <v>-0.02433857744158375</v>
       </c>
       <c r="D26">
-        <v>-0.074252919806287</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.07360563772893759</v>
+      </c>
+      <c r="E26">
+        <v>0.006302370168353327</v>
+      </c>
+      <c r="F26">
+        <v>0.02918015468800127</v>
+      </c>
+      <c r="G26">
+        <v>-0.01353258901537949</v>
+      </c>
+      <c r="H26">
+        <v>-0.04655068131950344</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.1921577119881515</v>
+        <v>0.2567350307019955</v>
       </c>
       <c r="C28">
-        <v>0.2509235665218612</v>
+        <v>0.2187661944776854</v>
       </c>
       <c r="D28">
-        <v>0.006566095340863528</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.003337664795427767</v>
+      </c>
+      <c r="E28">
+        <v>0.06201986049363537</v>
+      </c>
+      <c r="F28">
+        <v>0.02789897448147102</v>
+      </c>
+      <c r="G28">
+        <v>0.03620543864888816</v>
+      </c>
+      <c r="H28">
+        <v>0.05827494255525364</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.003319992725967038</v>
+        <v>0.004599622107723034</v>
       </c>
       <c r="C29">
-        <v>-0.02385088605224261</v>
+        <v>-0.02815810298989237</v>
       </c>
       <c r="D29">
-        <v>-0.09563206364652679</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.1033310915641132</v>
+      </c>
+      <c r="E29">
+        <v>-0.0009776819634391917</v>
+      </c>
+      <c r="F29">
+        <v>0.04597406459078498</v>
+      </c>
+      <c r="G29">
+        <v>-0.01756405534300605</v>
+      </c>
+      <c r="H29">
+        <v>-0.08190222028920778</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.0308983954953931</v>
+        <v>0.02928022056104225</v>
       </c>
       <c r="C30">
-        <v>-0.06509488263848646</v>
+        <v>-0.07713860274716944</v>
       </c>
       <c r="D30">
-        <v>-0.1607837706032665</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1665364018777825</v>
+      </c>
+      <c r="E30">
+        <v>0.005574387115275798</v>
+      </c>
+      <c r="F30">
+        <v>0.04214270103772118</v>
+      </c>
+      <c r="G30">
+        <v>0.00129858382694269</v>
+      </c>
+      <c r="H30">
+        <v>-0.06776881210264417</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.05518641369743955</v>
+        <v>0.03946860152019999</v>
       </c>
       <c r="C31">
-        <v>-0.07478053252582048</v>
+        <v>-0.08286799003945834</v>
       </c>
       <c r="D31">
-        <v>-0.05596689947212774</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.04337393281817169</v>
+      </c>
+      <c r="E31">
+        <v>0.01120390188009121</v>
+      </c>
+      <c r="F31">
+        <v>0.03614605241895847</v>
+      </c>
+      <c r="G31">
+        <v>-0.01644762594612448</v>
+      </c>
+      <c r="H31">
+        <v>-0.01185009474519553</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.02513644332543157</v>
+        <v>0.02312878115927879</v>
       </c>
       <c r="C32">
-        <v>-0.0246681395858518</v>
+        <v>-0.0310804425201127</v>
       </c>
       <c r="D32">
-        <v>-0.09997222368196045</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.1219307194901846</v>
+      </c>
+      <c r="E32">
+        <v>0.03806007664240239</v>
+      </c>
+      <c r="F32">
+        <v>0.05936262477155428</v>
+      </c>
+      <c r="G32">
+        <v>-0.0148643181716295</v>
+      </c>
+      <c r="H32">
+        <v>-0.03135870329812866</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.02336493699635492</v>
+        <v>0.02158069961391781</v>
       </c>
       <c r="C33">
-        <v>-0.04470963804952421</v>
+        <v>-0.05215975338365045</v>
       </c>
       <c r="D33">
-        <v>-0.1483483750255009</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1380266202618963</v>
+      </c>
+      <c r="E33">
+        <v>0.02372288872793559</v>
+      </c>
+      <c r="F33">
+        <v>0.03639771715855216</v>
+      </c>
+      <c r="G33">
+        <v>-0.01020799017370794</v>
+      </c>
+      <c r="H33">
+        <v>-0.04760139625871804</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.0353138725103025</v>
+        <v>0.02445552370855119</v>
       </c>
       <c r="C34">
-        <v>-0.06217368705440669</v>
+        <v>-0.06483056325112471</v>
       </c>
       <c r="D34">
-        <v>-0.06854043867702907</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.04985181399015014</v>
+      </c>
+      <c r="E34">
+        <v>-0.01965392620770616</v>
+      </c>
+      <c r="F34">
+        <v>-0.01523995001521467</v>
+      </c>
+      <c r="G34">
+        <v>-0.02197042893578722</v>
+      </c>
+      <c r="H34">
+        <v>-0.04433787364509521</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.001343137646772324</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.002143588965627261</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01028044159695071</v>
+      </c>
+      <c r="E35">
+        <v>-0.0005519334440955808</v>
+      </c>
+      <c r="F35">
+        <v>0.001987026899112857</v>
+      </c>
+      <c r="G35">
+        <v>-0.0007924962075424425</v>
+      </c>
+      <c r="H35">
+        <v>-0.002930225821363317</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01915193328419348</v>
+        <v>0.01799058327633676</v>
       </c>
       <c r="C36">
-        <v>-0.009468475437352722</v>
+        <v>-0.0198869380959506</v>
       </c>
       <c r="D36">
-        <v>-0.0957572370011823</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.08739714541415763</v>
+      </c>
+      <c r="E36">
+        <v>0.0162923418239249</v>
+      </c>
+      <c r="F36">
+        <v>0.022849785077132</v>
+      </c>
+      <c r="G36">
+        <v>0.005068808865592809</v>
+      </c>
+      <c r="H36">
+        <v>-0.03996109721972513</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.01766699270938687</v>
+        <v>0.02158762818119019</v>
       </c>
       <c r="C38">
-        <v>-0.01628574760233643</v>
+        <v>-0.0202600303325737</v>
       </c>
       <c r="D38">
-        <v>-0.08184659435489601</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.08073548647302259</v>
+      </c>
+      <c r="E38">
+        <v>0.0307288663740137</v>
+      </c>
+      <c r="F38">
+        <v>-0.01093065105929307</v>
+      </c>
+      <c r="G38">
+        <v>-0.02387548788381109</v>
+      </c>
+      <c r="H38">
+        <v>-0.03684032533346132</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.03829487415262388</v>
+        <v>0.02936712924131342</v>
       </c>
       <c r="C39">
-        <v>-0.05886254143205992</v>
+        <v>-0.07371998906956248</v>
       </c>
       <c r="D39">
-        <v>-0.1092819739694332</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1093603721068054</v>
+      </c>
+      <c r="E39">
+        <v>-0.01045494879066059</v>
+      </c>
+      <c r="F39">
+        <v>-0.007934076467450167</v>
+      </c>
+      <c r="G39">
+        <v>0.0007093371613836143</v>
+      </c>
+      <c r="H39">
+        <v>-0.08885145114403806</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.01636682613173124</v>
+        <v>0.01205438698682509</v>
       </c>
       <c r="C40">
-        <v>-0.04304236905471864</v>
+        <v>-0.03950443341111193</v>
       </c>
       <c r="D40">
-        <v>-0.09020479252068324</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.09355702233319499</v>
+      </c>
+      <c r="E40">
+        <v>0.02750307205047436</v>
+      </c>
+      <c r="F40">
+        <v>0.1020407751220392</v>
+      </c>
+      <c r="G40">
+        <v>-0.1720811309038147</v>
+      </c>
+      <c r="H40">
+        <v>-0.113550806944323</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.03019016324765647</v>
+        <v>0.02804588895967279</v>
       </c>
       <c r="C41">
-        <v>-0.004034826534767473</v>
+        <v>-0.0135723300226325</v>
       </c>
       <c r="D41">
-        <v>-0.06932040409427809</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.05180520736995956</v>
+      </c>
+      <c r="E41">
+        <v>0.04404015593008482</v>
+      </c>
+      <c r="F41">
+        <v>0.01757846707529311</v>
+      </c>
+      <c r="G41">
+        <v>-0.02936372723159041</v>
+      </c>
+      <c r="H41">
+        <v>-0.03932980279905036</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.02339468712917338</v>
+        <v>0.01985769975406023</v>
       </c>
       <c r="C43">
-        <v>-0.01274103609502481</v>
+        <v>-0.01980130710846745</v>
       </c>
       <c r="D43">
-        <v>-0.1020566388434859</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.07960570639199736</v>
+      </c>
+      <c r="E43">
+        <v>0.0224774580517168</v>
+      </c>
+      <c r="F43">
+        <v>0.0132547735171073</v>
+      </c>
+      <c r="G43">
+        <v>-0.0228637368213329</v>
+      </c>
+      <c r="H43">
+        <v>-0.04375329988563916</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.01133409335724825</v>
+        <v>0.01250868353933843</v>
       </c>
       <c r="C44">
-        <v>-0.04421867678441494</v>
+        <v>-0.04498516978166576</v>
       </c>
       <c r="D44">
-        <v>-0.09356871384368907</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.1112441763791452</v>
+      </c>
+      <c r="E44">
+        <v>0.02937571358177347</v>
+      </c>
+      <c r="F44">
+        <v>0.02320103105140426</v>
+      </c>
+      <c r="G44">
+        <v>-0.006817421533739141</v>
+      </c>
+      <c r="H44">
+        <v>-0.04929236295805795</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.01461229830060486</v>
+        <v>0.009797919214728557</v>
       </c>
       <c r="C46">
-        <v>-0.02680422427148943</v>
+        <v>-0.03448858378320154</v>
       </c>
       <c r="D46">
-        <v>-0.1043898779077787</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.09909160993674548</v>
+      </c>
+      <c r="E46">
+        <v>0.01037065589206937</v>
+      </c>
+      <c r="F46">
+        <v>0.02348547901117963</v>
+      </c>
+      <c r="G46">
+        <v>-0.005726130319166189</v>
+      </c>
+      <c r="H46">
+        <v>-0.0840148570738871</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.09169106536178798</v>
+        <v>0.07019696491862791</v>
       </c>
       <c r="C47">
-        <v>-0.08660715002453291</v>
+        <v>-0.1025799422461196</v>
       </c>
       <c r="D47">
-        <v>-0.03087223474562002</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.02375371266274531</v>
+      </c>
+      <c r="E47">
+        <v>0.02278767794267739</v>
+      </c>
+      <c r="F47">
+        <v>0.02078339732096852</v>
+      </c>
+      <c r="G47">
+        <v>-0.007994724660974065</v>
+      </c>
+      <c r="H47">
+        <v>0.05663323062471069</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01209760559456485</v>
+        <v>0.01269509092986849</v>
       </c>
       <c r="C48">
-        <v>-0.02158506461918399</v>
+        <v>-0.02690765331741748</v>
       </c>
       <c r="D48">
-        <v>-0.0860668958559497</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.08595261554802398</v>
+      </c>
+      <c r="E48">
+        <v>0.0437598923807991</v>
+      </c>
+      <c r="F48">
+        <v>0.02988943750087528</v>
+      </c>
+      <c r="G48">
+        <v>-0.003366901184477581</v>
+      </c>
+      <c r="H48">
+        <v>-0.05863032381785062</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.05113060616457439</v>
+        <v>0.03780535735322705</v>
       </c>
       <c r="C50">
-        <v>-0.06068177483410122</v>
+        <v>-0.0708249901989117</v>
       </c>
       <c r="D50">
-        <v>-0.06102777986539629</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.05356912972843202</v>
+      </c>
+      <c r="E50">
+        <v>0.01591963615967472</v>
+      </c>
+      <c r="F50">
+        <v>0.03627084777199744</v>
+      </c>
+      <c r="G50">
+        <v>-0.04228085929424977</v>
+      </c>
+      <c r="H50">
+        <v>-0.001161959970285938</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.01086420595996762</v>
+        <v>0.008954134700763549</v>
       </c>
       <c r="C51">
-        <v>-0.01696579802687551</v>
+        <v>-0.02302698213414461</v>
       </c>
       <c r="D51">
-        <v>-0.09019772131745894</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.09412115654667121</v>
+      </c>
+      <c r="E51">
+        <v>-0.006034004518258059</v>
+      </c>
+      <c r="F51">
+        <v>0.008853775959232996</v>
+      </c>
+      <c r="G51">
+        <v>0.005377611111684888</v>
+      </c>
+      <c r="H51">
+        <v>-0.07179208351000789</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1065307721176726</v>
+        <v>0.08978508723866628</v>
       </c>
       <c r="C53">
-        <v>-0.105767807875309</v>
+        <v>-0.125090748129559</v>
       </c>
       <c r="D53">
-        <v>0.01231698613285443</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.006323217736200428</v>
+      </c>
+      <c r="E53">
+        <v>0.07111813347667192</v>
+      </c>
+      <c r="F53">
+        <v>0.08269900148984116</v>
+      </c>
+      <c r="G53">
+        <v>-0.004152570612777104</v>
+      </c>
+      <c r="H53">
+        <v>0.01359723869700532</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.0192654496286556</v>
+        <v>0.01687492890029138</v>
       </c>
       <c r="C54">
-        <v>-0.0280083051254321</v>
+        <v>-0.03588575746884454</v>
       </c>
       <c r="D54">
-        <v>-0.1114415598071133</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.09579343375576307</v>
+      </c>
+      <c r="E54">
+        <v>0.02303312156081859</v>
+      </c>
+      <c r="F54">
+        <v>0.01803434216871429</v>
+      </c>
+      <c r="G54">
+        <v>-0.04099686197314199</v>
+      </c>
+      <c r="H54">
+        <v>-0.0668056781158822</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.09886578314825685</v>
+        <v>0.0801195956958593</v>
       </c>
       <c r="C55">
-        <v>-0.08128923636757311</v>
+        <v>-0.1002918059973837</v>
       </c>
       <c r="D55">
-        <v>0.02339257573609874</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.02120730812675817</v>
+      </c>
+      <c r="E55">
+        <v>0.02288127570723657</v>
+      </c>
+      <c r="F55">
+        <v>0.06347626534482727</v>
+      </c>
+      <c r="G55">
+        <v>-0.03047305076664013</v>
+      </c>
+      <c r="H55">
+        <v>0.01813858807017106</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1364809920506419</v>
+        <v>0.1110926169954114</v>
       </c>
       <c r="C56">
-        <v>-0.114116216818193</v>
+        <v>-0.1473677403055328</v>
       </c>
       <c r="D56">
-        <v>0.02450526164217947</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.02450768582935344</v>
+      </c>
+      <c r="E56">
+        <v>0.04828671972910617</v>
+      </c>
+      <c r="F56">
+        <v>0.05430246602733519</v>
+      </c>
+      <c r="G56">
+        <v>-0.03661930360538418</v>
+      </c>
+      <c r="H56">
+        <v>0.03642211074811669</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.008233369802049157</v>
+        <v>0.001141062598445166</v>
       </c>
       <c r="C58">
-        <v>-0.04110719390416046</v>
+        <v>-0.05303701830878355</v>
       </c>
       <c r="D58">
-        <v>-0.1954510546074228</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.2622174935037714</v>
+      </c>
+      <c r="E58">
+        <v>0.09486586151399896</v>
+      </c>
+      <c r="F58">
+        <v>0.1224867078946162</v>
+      </c>
+      <c r="G58">
+        <v>-0.06810991386703216</v>
+      </c>
+      <c r="H58">
+        <v>0.0157928294833177</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1491966760368847</v>
+        <v>0.1970843032424208</v>
       </c>
       <c r="C59">
-        <v>0.1693693220405506</v>
+        <v>0.1408304907740864</v>
       </c>
       <c r="D59">
-        <v>-0.05750008411730686</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.07020554049986495</v>
+      </c>
+      <c r="E59">
+        <v>0.04321438722560211</v>
+      </c>
+      <c r="F59">
+        <v>-0.01568551780761717</v>
+      </c>
+      <c r="G59">
+        <v>0.01679901765321749</v>
+      </c>
+      <c r="H59">
+        <v>0.01967497096082801</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.2371100717233834</v>
+        <v>0.2110027802975209</v>
       </c>
       <c r="C60">
-        <v>-0.07818360409600704</v>
+        <v>-0.129536716246666</v>
       </c>
       <c r="D60">
-        <v>-0.1680423976508465</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.1098152476718209</v>
+      </c>
+      <c r="E60">
+        <v>-0.3172584480484157</v>
+      </c>
+      <c r="F60">
+        <v>-0.1105305992565298</v>
+      </c>
+      <c r="G60">
+        <v>0.08110200852282579</v>
+      </c>
+      <c r="H60">
+        <v>0.1856193576820384</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.04230643615883686</v>
+        <v>0.03297570267914983</v>
       </c>
       <c r="C61">
-        <v>-0.05623495378983228</v>
+        <v>-0.06740506384874401</v>
       </c>
       <c r="D61">
-        <v>-0.1142141687867191</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.09657334449725972</v>
+      </c>
+      <c r="E61">
+        <v>-0.0121536714756013</v>
+      </c>
+      <c r="F61">
+        <v>-0.008445810974866573</v>
+      </c>
+      <c r="G61">
+        <v>0.0007619338187508375</v>
+      </c>
+      <c r="H61">
+        <v>-0.04588056160119292</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01499595934238101</v>
+        <v>0.01199737309324725</v>
       </c>
       <c r="C63">
-        <v>-0.02695199159292813</v>
+        <v>-0.03538755862983728</v>
       </c>
       <c r="D63">
-        <v>-0.08718118701652149</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.07688522225624435</v>
+      </c>
+      <c r="E63">
+        <v>-0.001103651859076868</v>
+      </c>
+      <c r="F63">
+        <v>0.02419490209427797</v>
+      </c>
+      <c r="G63">
+        <v>-0.003488256827913763</v>
+      </c>
+      <c r="H63">
+        <v>-0.04979385247023459</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.05748775164664349</v>
+        <v>0.04209576558965595</v>
       </c>
       <c r="C64">
-        <v>-0.07415872855160058</v>
+        <v>-0.08444720238525573</v>
       </c>
       <c r="D64">
-        <v>-0.05304785986992273</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.05179981814412162</v>
+      </c>
+      <c r="E64">
+        <v>0.01009883132898181</v>
+      </c>
+      <c r="F64">
+        <v>0.006298336672677735</v>
+      </c>
+      <c r="G64">
+        <v>0.07691125049629287</v>
+      </c>
+      <c r="H64">
+        <v>-0.07207712909512079</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.0308129467193229</v>
+        <v>0.02835540884830185</v>
       </c>
       <c r="C65">
-        <v>-0.02218175679710188</v>
+        <v>-0.03436360957675712</v>
       </c>
       <c r="D65">
-        <v>-0.1108479168396857</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.1082001964720115</v>
+      </c>
+      <c r="E65">
+        <v>-0.004324634270046548</v>
+      </c>
+      <c r="F65">
+        <v>0.03354888426685826</v>
+      </c>
+      <c r="G65">
+        <v>-0.0128118622247318</v>
+      </c>
+      <c r="H65">
+        <v>-0.02597137904939355</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.04076750604507563</v>
+        <v>0.03171691021684588</v>
       </c>
       <c r="C66">
-        <v>-0.0676554274633924</v>
+        <v>-0.08583602774317244</v>
       </c>
       <c r="D66">
-        <v>-0.1225522520934158</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1342121111550727</v>
+      </c>
+      <c r="E66">
+        <v>-0.006755058240626525</v>
+      </c>
+      <c r="F66">
+        <v>-0.002732765727074233</v>
+      </c>
+      <c r="G66">
+        <v>-0.01122993891016725</v>
+      </c>
+      <c r="H66">
+        <v>-0.04759755413468673</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.03921479299069504</v>
+        <v>0.03742480189931481</v>
       </c>
       <c r="C67">
-        <v>-0.02187560132052144</v>
+        <v>-0.02916993303492524</v>
       </c>
       <c r="D67">
-        <v>-0.04503486919939662</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.03487543286865557</v>
+      </c>
+      <c r="E67">
+        <v>0.00729451831291753</v>
+      </c>
+      <c r="F67">
+        <v>-0.02610614470200423</v>
+      </c>
+      <c r="G67">
+        <v>-0.02312609149155562</v>
+      </c>
+      <c r="H67">
+        <v>-0.04011062708871763</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.1821091975587885</v>
+        <v>0.2278528412015673</v>
       </c>
       <c r="C68">
-        <v>0.2023192565072044</v>
+        <v>0.1625309155639391</v>
       </c>
       <c r="D68">
-        <v>-0.02161596222098007</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.03055706113498951</v>
+      </c>
+      <c r="E68">
+        <v>0.01735569489967662</v>
+      </c>
+      <c r="F68">
+        <v>0.03698370387092559</v>
+      </c>
+      <c r="G68">
+        <v>-0.02848516442147673</v>
+      </c>
+      <c r="H68">
+        <v>0.01542642416208266</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.08624623361285187</v>
+        <v>0.06495730803938478</v>
       </c>
       <c r="C69">
-        <v>-0.1022583521276776</v>
+        <v>-0.1091736255922012</v>
       </c>
       <c r="D69">
-        <v>-0.06236581735935962</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.04016534077148133</v>
+      </c>
+      <c r="E69">
+        <v>0.003473185773120818</v>
+      </c>
+      <c r="F69">
+        <v>0.00674227527313759</v>
+      </c>
+      <c r="G69">
+        <v>-0.01063911960545243</v>
+      </c>
+      <c r="H69">
+        <v>0.02935817289605683</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.1699293962349956</v>
+        <v>0.2162548242376868</v>
       </c>
       <c r="C71">
-        <v>0.2095259062351137</v>
+        <v>0.1720540142369581</v>
       </c>
       <c r="D71">
-        <v>-0.01603291288389559</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.02765576085052354</v>
+      </c>
+      <c r="E71">
+        <v>0.03678515853129376</v>
+      </c>
+      <c r="F71">
+        <v>0.05879038269711283</v>
+      </c>
+      <c r="G71">
+        <v>-0.04882572324688786</v>
+      </c>
+      <c r="H71">
+        <v>0.01529622555224299</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1122462988667263</v>
+        <v>0.09453592836519517</v>
       </c>
       <c r="C72">
-        <v>-0.0616930924390596</v>
+        <v>-0.09382083015502937</v>
       </c>
       <c r="D72">
-        <v>-0.08192745227100978</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.08214129658013929</v>
+      </c>
+      <c r="E72">
+        <v>-0.06437584402769721</v>
+      </c>
+      <c r="F72">
+        <v>0.03641301074977761</v>
+      </c>
+      <c r="G72">
+        <v>-0.002341699162628252</v>
+      </c>
+      <c r="H72">
+        <v>-0.02755628079949248</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2178079273411352</v>
+        <v>0.1930052122387372</v>
       </c>
       <c r="C73">
-        <v>-0.04542964105625649</v>
+        <v>-0.1068038925834042</v>
       </c>
       <c r="D73">
-        <v>-0.2787784684887025</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.151210669138519</v>
+      </c>
+      <c r="E73">
+        <v>-0.5661045181649247</v>
+      </c>
+      <c r="F73">
+        <v>-0.1939933847904629</v>
+      </c>
+      <c r="G73">
+        <v>0.1557113491192972</v>
+      </c>
+      <c r="H73">
+        <v>0.2421784430085019</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1116176127005905</v>
+        <v>0.08837700775503034</v>
       </c>
       <c r="C74">
-        <v>-0.08886682742467204</v>
+        <v>-0.1119383313745843</v>
       </c>
       <c r="D74">
-        <v>0.03665962087020445</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.03756522060570767</v>
+      </c>
+      <c r="E74">
+        <v>0.02921527014194228</v>
+      </c>
+      <c r="F74">
+        <v>0.06795972103133628</v>
+      </c>
+      <c r="G74">
+        <v>0.01225170606103658</v>
+      </c>
+      <c r="H74">
+        <v>0.03482840918495412</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2581955213719544</v>
+        <v>0.2110045988718762</v>
       </c>
       <c r="C75">
-        <v>-0.1516534588644217</v>
+        <v>-0.2028260128962395</v>
       </c>
       <c r="D75">
-        <v>0.1299648331330348</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1419186139294028</v>
+      </c>
+      <c r="E75">
+        <v>0.08443040198572455</v>
+      </c>
+      <c r="F75">
+        <v>0.01722915621968031</v>
+      </c>
+      <c r="G75">
+        <v>-0.05909363387776434</v>
+      </c>
+      <c r="H75">
+        <v>0.04644981261935527</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1466710274140392</v>
+        <v>0.1159610421939103</v>
       </c>
       <c r="C76">
-        <v>-0.1172615286299638</v>
+        <v>-0.1442483111101443</v>
       </c>
       <c r="D76">
-        <v>0.0247008388325274</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.03123272496144968</v>
+      </c>
+      <c r="E76">
+        <v>0.06523178058058574</v>
+      </c>
+      <c r="F76">
+        <v>0.03310399531358971</v>
+      </c>
+      <c r="G76">
+        <v>-0.0257743527910003</v>
+      </c>
+      <c r="H76">
+        <v>-0.02434108735172472</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.04340999899681288</v>
+        <v>0.04619674388720876</v>
       </c>
       <c r="C77">
-        <v>-0.0779629749422199</v>
+        <v>-0.08559604638601025</v>
       </c>
       <c r="D77">
-        <v>-0.0388661532510803</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1475503869291159</v>
+      </c>
+      <c r="E77">
+        <v>0.5205496628849468</v>
+      </c>
+      <c r="F77">
+        <v>-0.3813376342558165</v>
+      </c>
+      <c r="G77">
+        <v>-0.1383229208934193</v>
+      </c>
+      <c r="H77">
+        <v>0.6422774655107247</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.04217942955392268</v>
+        <v>0.0379509395010466</v>
       </c>
       <c r="C78">
-        <v>-0.0628869059047137</v>
+        <v>-0.07529301007479462</v>
       </c>
       <c r="D78">
-        <v>-0.1387281806789723</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1404358200218367</v>
+      </c>
+      <c r="E78">
+        <v>0.006789197718879049</v>
+      </c>
+      <c r="F78">
+        <v>0.0399262833329285</v>
+      </c>
+      <c r="G78">
+        <v>0.002539609427762205</v>
+      </c>
+      <c r="H78">
+        <v>0.01173687178197208</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.06267200578684731</v>
+        <v>0.05385143817423563</v>
       </c>
       <c r="C79">
-        <v>-0.105943395898795</v>
+        <v>-0.1197859696312534</v>
       </c>
       <c r="D79">
-        <v>0.1520545502862643</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.06955782400832704</v>
+      </c>
+      <c r="E79">
+        <v>0.2049372520480634</v>
+      </c>
+      <c r="F79">
+        <v>0.471503754670931</v>
+      </c>
+      <c r="G79">
+        <v>0.7387876694854499</v>
+      </c>
+      <c r="H79">
+        <v>0.1749358035997319</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.02176211831541855</v>
+        <v>0.01742532903444005</v>
       </c>
       <c r="C80">
-        <v>-0.04907173041258512</v>
+        <v>-0.04933579581902144</v>
       </c>
       <c r="D80">
-        <v>-0.03030450124101306</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.02539984827533848</v>
+      </c>
+      <c r="E80">
+        <v>-0.0002933076912645829</v>
+      </c>
+      <c r="F80">
+        <v>0.01987007318304408</v>
+      </c>
+      <c r="G80">
+        <v>-0.02562379794985303</v>
+      </c>
+      <c r="H80">
+        <v>-0.05302780698011806</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1341907518803425</v>
+        <v>0.1020968762818552</v>
       </c>
       <c r="C81">
-        <v>-0.1197124732663734</v>
+        <v>-0.1410538788327578</v>
       </c>
       <c r="D81">
-        <v>0.1036350047332229</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.1014711734928108</v>
+      </c>
+      <c r="E81">
+        <v>0.09064246197668606</v>
+      </c>
+      <c r="F81">
+        <v>0.05544535056570247</v>
+      </c>
+      <c r="G81">
+        <v>-0.02445615766615384</v>
+      </c>
+      <c r="H81">
+        <v>-0.02605137489396659</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.267154051100979</v>
+        <v>0.1981059696047179</v>
       </c>
       <c r="C82">
-        <v>-0.2417671016757444</v>
+        <v>-0.2677838738777229</v>
       </c>
       <c r="D82">
-        <v>0.2321595610646431</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2332491913016881</v>
+      </c>
+      <c r="E82">
+        <v>0.006348404073075021</v>
+      </c>
+      <c r="F82">
+        <v>-0.05912685059179911</v>
+      </c>
+      <c r="G82">
+        <v>-0.07235223837073305</v>
+      </c>
+      <c r="H82">
+        <v>-0.007120478625820788</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.02638522552074614</v>
+        <v>0.01543292442561443</v>
       </c>
       <c r="C83">
-        <v>-0.06086222395357639</v>
+        <v>-0.05675370578811709</v>
       </c>
       <c r="D83">
-        <v>-0.05492534232908626</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.06015110229512339</v>
+      </c>
+      <c r="E83">
+        <v>0.06106718201588246</v>
+      </c>
+      <c r="F83">
+        <v>-0.071480617345523</v>
+      </c>
+      <c r="G83">
+        <v>0.004208591388362773</v>
+      </c>
+      <c r="H83">
+        <v>0.0179588450628873</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.001215888536519702</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.008019501455775886</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.02262307811421867</v>
+      </c>
+      <c r="E84">
+        <v>0.01415381718788076</v>
+      </c>
+      <c r="F84">
+        <v>0.02396395859663004</v>
+      </c>
+      <c r="G84">
+        <v>-0.0125407770556938</v>
+      </c>
+      <c r="H84">
+        <v>-0.02356748657980166</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1684681991934023</v>
+        <v>0.1336283598659026</v>
       </c>
       <c r="C85">
-        <v>-0.1234987084736426</v>
+        <v>-0.1619049363995607</v>
       </c>
       <c r="D85">
-        <v>0.06733626280392539</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.0872087784774194</v>
+      </c>
+      <c r="E85">
+        <v>0.01925210269642429</v>
+      </c>
+      <c r="F85">
+        <v>0.05824261907494574</v>
+      </c>
+      <c r="G85">
+        <v>0.04825471734590895</v>
+      </c>
+      <c r="H85">
+        <v>-0.02217762653198374</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.02165821898599168</v>
+        <v>0.01821210884340218</v>
       </c>
       <c r="C86">
-        <v>-0.03655362501957388</v>
+        <v>-0.03770056041654921</v>
       </c>
       <c r="D86">
-        <v>-0.117879583971671</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.1212855584014242</v>
+      </c>
+      <c r="E86">
+        <v>0.02441138272712466</v>
+      </c>
+      <c r="F86">
+        <v>-0.01677582761940066</v>
+      </c>
+      <c r="G86">
+        <v>-0.0397723108865175</v>
+      </c>
+      <c r="H86">
+        <v>0.06290539950226569</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.02770820471146922</v>
+        <v>0.02993186644601678</v>
       </c>
       <c r="C87">
-        <v>-0.02588926721268342</v>
+        <v>-0.03918035738259636</v>
       </c>
       <c r="D87">
-        <v>-0.1182011997205063</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.1423690376786345</v>
+      </c>
+      <c r="E87">
+        <v>0.05173165573105072</v>
+      </c>
+      <c r="F87">
+        <v>0.0360161687555554</v>
+      </c>
+      <c r="G87">
+        <v>-0.01639235089159861</v>
+      </c>
+      <c r="H87">
+        <v>-0.052425906936536</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.06844508665890227</v>
+        <v>0.05582821627156221</v>
       </c>
       <c r="C88">
-        <v>-0.04586954830562857</v>
+        <v>-0.06202294684565993</v>
       </c>
       <c r="D88">
-        <v>-0.04626612359784711</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.02185544304673024</v>
+      </c>
+      <c r="E88">
+        <v>-0.00096877231777165</v>
+      </c>
+      <c r="F88">
+        <v>0.02741245405442452</v>
+      </c>
+      <c r="G88">
+        <v>0.008260239477659442</v>
+      </c>
+      <c r="H88">
+        <v>-0.03552716672618099</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.2671831508031547</v>
+        <v>0.3331745181268497</v>
       </c>
       <c r="C89">
-        <v>0.381043605051176</v>
+        <v>0.3012983207432819</v>
       </c>
       <c r="D89">
-        <v>-0.0002625279280621297</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.01040360862346281</v>
+      </c>
+      <c r="E89">
+        <v>0.06187593166807755</v>
+      </c>
+      <c r="F89">
+        <v>0.008390566263180283</v>
+      </c>
+      <c r="G89">
+        <v>0.02387515713356954</v>
+      </c>
+      <c r="H89">
+        <v>-0.1608746599197808</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.2204291905775365</v>
+        <v>0.2689514572532204</v>
       </c>
       <c r="C90">
-        <v>0.2757612603628512</v>
+        <v>0.2115050647805179</v>
       </c>
       <c r="D90">
-        <v>-0.02576803000854357</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.03657828311761458</v>
+      </c>
+      <c r="E90">
+        <v>0.03938094552304915</v>
+      </c>
+      <c r="F90">
+        <v>0.004421114164498744</v>
+      </c>
+      <c r="G90">
+        <v>-0.05964820588267269</v>
+      </c>
+      <c r="H90">
+        <v>-0.02364090464842497</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.1716585091159858</v>
+        <v>0.1326584748021348</v>
       </c>
       <c r="C91">
-        <v>-0.1629422848696826</v>
+        <v>-0.1802876900741819</v>
       </c>
       <c r="D91">
-        <v>0.1287177380679679</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1171052934554292</v>
+      </c>
+      <c r="E91">
+        <v>0.09748969599774798</v>
+      </c>
+      <c r="F91">
+        <v>0.06613807311508497</v>
+      </c>
+      <c r="G91">
+        <v>0.02775743790247943</v>
+      </c>
+      <c r="H91">
+        <v>0.03550992169563748</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1862337962309502</v>
+        <v>0.2568328491080339</v>
       </c>
       <c r="C92">
-        <v>0.2696330574704582</v>
+        <v>0.2354976155553641</v>
       </c>
       <c r="D92">
-        <v>-0.02128089743732202</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.03504686612127698</v>
+      </c>
+      <c r="E92">
+        <v>0.1029759165299424</v>
+      </c>
+      <c r="F92">
+        <v>0.01440880516618936</v>
+      </c>
+      <c r="G92">
+        <v>-0.003646360886211633</v>
+      </c>
+      <c r="H92">
+        <v>-0.05402380063595034</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.2391604257309795</v>
+        <v>0.2856502694822941</v>
       </c>
       <c r="C93">
-        <v>0.30218727076223</v>
+        <v>0.2311290247412683</v>
       </c>
       <c r="D93">
-        <v>-0.02738550673362944</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.01054727632463473</v>
+      </c>
+      <c r="E93">
+        <v>-0.02454577951962102</v>
+      </c>
+      <c r="F93">
+        <v>0.03699154515403365</v>
+      </c>
+      <c r="G93">
+        <v>0.01234747622447287</v>
+      </c>
+      <c r="H93">
+        <v>0.03591558983020308</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.3556747692531588</v>
+        <v>0.2865863083398477</v>
       </c>
       <c r="C94">
-        <v>-0.2029195675598746</v>
+        <v>-0.2833714881818102</v>
       </c>
       <c r="D94">
-        <v>0.352509922854397</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.3796477722327549</v>
+      </c>
+      <c r="E94">
+        <v>0.02246984199958286</v>
+      </c>
+      <c r="F94">
+        <v>-0.03852303001548618</v>
+      </c>
+      <c r="G94">
+        <v>-0.2438853848981357</v>
+      </c>
+      <c r="H94">
+        <v>-0.2417892980552744</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.07141483891802348</v>
+        <v>0.06208928379099157</v>
       </c>
       <c r="C95">
-        <v>-0.0699996696731414</v>
+        <v>-0.08186231609998111</v>
       </c>
       <c r="D95">
-        <v>-0.1563918417070936</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1275449803931944</v>
+      </c>
+      <c r="E95">
+        <v>0.2212569958408478</v>
+      </c>
+      <c r="F95">
+        <v>-0.638598951227842</v>
+      </c>
+      <c r="G95">
+        <v>0.4483889957519872</v>
+      </c>
+      <c r="H95">
+        <v>-0.4250807085149765</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3187,74 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>-0.0001093443573682889</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.0003042443836697452</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>2.885049151166944e-05</v>
+      </c>
+      <c r="E97">
+        <v>-0.0003067285890051032</v>
+      </c>
+      <c r="F97">
+        <v>-9.77579626176682e-05</v>
+      </c>
+      <c r="G97">
+        <v>-0.0002550350559411609</v>
+      </c>
+      <c r="H97">
+        <v>0.0005114407408641346</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1765461872886625</v>
+        <v>0.1607514207270028</v>
       </c>
       <c r="C98">
-        <v>-0.05782115064995451</v>
+        <v>-0.1026512566946675</v>
       </c>
       <c r="D98">
-        <v>-0.1474246420042002</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.09786930834396933</v>
+      </c>
+      <c r="E98">
+        <v>-0.3218674681756368</v>
+      </c>
+      <c r="F98">
+        <v>-0.09381004225209173</v>
+      </c>
+      <c r="G98">
+        <v>0.07405965285318887</v>
+      </c>
+      <c r="H98">
+        <v>0.1403935243133866</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.003442424940450653</v>
+        <v>0.004795663846085505</v>
       </c>
       <c r="C101">
-        <v>-0.02320594567999638</v>
+        <v>-0.02738533083329088</v>
       </c>
       <c r="D101">
-        <v>-0.09575891992400377</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.103130903968812</v>
+      </c>
+      <c r="E101">
+        <v>-1.702611431349599e-05</v>
+      </c>
+      <c r="F101">
+        <v>0.04550793848310344</v>
+      </c>
+      <c r="G101">
+        <v>-0.01704183528742399</v>
+      </c>
+      <c r="H101">
+        <v>-0.08201298703559312</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1244231597795929</v>
+        <v>0.08844084362850607</v>
       </c>
       <c r="C102">
-        <v>-0.1268218789047051</v>
+        <v>-0.1329320120597779</v>
       </c>
       <c r="D102">
-        <v>0.09852061211978849</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.1005176757862216</v>
+      </c>
+      <c r="E102">
+        <v>0.02629809629329046</v>
+      </c>
+      <c r="F102">
+        <v>-0.03931452719810451</v>
+      </c>
+      <c r="G102">
+        <v>-0.02641921259423854</v>
+      </c>
+      <c r="H102">
+        <v>0.003263046084225336</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
